--- a/biology/Histoire de la zoologie et de la botanique/Pierre_Léonard_Van_Der_Linden/Pierre_Léonard_Van_Der_Linden.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Pierre_Léonard_Van_Der_Linden/Pierre_Léonard_Van_Der_Linden.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pierre_L%C3%A9onard_Van_Der_Linden</t>
+          <t>Pierre_Léonard_Van_Der_Linden</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Léonard Van Der (ou Vander) Linden est un entomologiste belge, né le 12 décembre 1797 et mort le 5 avril 1831.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pierre_L%C3%A9onard_Van_Der_Linden</t>
+          <t>Pierre_Léonard_Van_Der_Linden</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Grâce à une bourse (1817), il peut étudier en Italie notamment auprès du botaniste Antonio Bertoloni (1775–1869) et du zoologiste Camillo Ranzani (1775–1841). Il obtient son doctorat en médecine à Bologne en 1821. En 1821, il séjourne à Paris.
 Van Der Linden revient en Belgique en 1822 et obtient, l’année suivante, un autre doctorat de médecine à l’université de Louvain. Il est le premier professeur de zoologie de Belgique, au sein du Musée des sciences et des lettres. Il enseigne les sciences naturelles à l’Athénée.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pierre_L%C3%A9onard_Van_Der_Linden</t>
+          <t>Pierre_Léonard_Van_Der_Linden</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Daniel Pauly (2001). Bibliographie des Hyménoptères de Belgique précédée de notices biographiques (1827–2000). Première partie, Notes faunistiques de Gembloux, 44 : 37–84.  (ISSN 0770-2019)</t>
         </is>
